--- a/Test Data/InputData.xlsx
+++ b/Test Data/InputData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Environment</t>
   </si>
@@ -28,66 +28,107 @@
     <t>URL</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Username </t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>https://dev.ortelligence.com/</t>
+  </si>
+  <si>
     <t>Super Admin</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Local Admin</t>
-  </si>
-  <si>
-    <t>Observer</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>https://safety.kuvrr.com/observer/ </t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Kuvrr@2019#</t>
-  </si>
-  <si>
-    <t>lackorg@mailinator.com</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>obsckorg@mailinator.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>https://safety-test.kuvrr.com/observer/ </t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>https://safety-red5.kuvrr.com/?next=/observer/ </t>
-  </si>
-  <si>
-    <t>secret</t>
+    <t>admin@ort.com</t>
+  </si>
+  <si>
+    <t>ORT@5432</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>https://qa.ortelligence.com/</t>
+  </si>
+  <si>
+    <t>Health System Admin</t>
+  </si>
+  <si>
+    <t>mother_facilityadmin@mailinator.com</t>
+  </si>
+  <si>
+    <t>ORT@54321</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>https://ortelligencepro.com/</t>
+  </si>
+  <si>
+    <t>Surgeon </t>
+  </si>
+  <si>
+    <t>surgeon_mh@mailinator.com</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>mother_hcp@mailinator.com</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>mother_nurse@mailinator.com</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>mother_spd@mailinator.com</t>
+  </si>
+  <si>
+    <t>Scrub Tech</t>
+  </si>
+  <si>
+    <t>mother_scrub@mailinator.com</t>
+  </si>
+  <si>
+    <t>Scheduler</t>
+  </si>
+  <si>
+    <t>mother_scheduller@mailinator.com</t>
+  </si>
+  <si>
+    <t>Sales Rep</t>
+  </si>
+  <si>
+    <t>mother_salesrep@mailinator.com</t>
+  </si>
+  <si>
+    <t>Material Management</t>
+  </si>
+  <si>
+    <t>mother_mm@mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -112,13 +153,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -179,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,18 +223,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,23 +247,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.5765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,108 +280,136 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://safety.kuvrr.com/observer/ "/>
-    <hyperlink ref="D2" r:id="rId2" display="Kuvrr@2019#"/>
-    <hyperlink ref="E2" r:id="rId3" display="lackorg@mailinator.com"/>
-    <hyperlink ref="G2" r:id="rId4" display="obsckorg@mailinator.com"/>
-    <hyperlink ref="B3" r:id="rId5" display="https://safety-test.kuvrr.com/observer/ "/>
-    <hyperlink ref="D3" r:id="rId6" display="Kuvrr@2019#"/>
-    <hyperlink ref="E3" r:id="rId7" display="lackorg@mailinator.com"/>
-    <hyperlink ref="G3" r:id="rId8" display="obsckorg@mailinator.com"/>
-    <hyperlink ref="B4" r:id="rId9" display="https://safety-red5.kuvrr.com/?next=/observer/ "/>
-    <hyperlink ref="E4" r:id="rId10" display="lackorg@mailinator.com"/>
-    <hyperlink ref="G4" r:id="rId11" display="obsckorg@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
